--- a/Case Info Changelog.xlsx
+++ b/Case Info Changelog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="176">
   <si>
     <t>CaseCode</t>
   </si>
@@ -29,22 +29,34 @@
     <t>Records Changed</t>
   </si>
   <si>
-    <t>C121567</t>
+    <t>HealthStatus</t>
+  </si>
+  <si>
+    <t>C104325</t>
+  </si>
+  <si>
+    <t>Mild</t>
+  </si>
+  <si>
+    <t>RemovalType</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Asymptomatic</t>
+  </si>
+  <si>
+    <t>RegionRes</t>
   </si>
   <si>
     <t>DateRepRem</t>
   </si>
   <si>
-    <t>HealthStatus</t>
-  </si>
-  <si>
-    <t>Asymptomatic</t>
-  </si>
-  <si>
-    <t>Recovered</t>
-  </si>
-  <si>
-    <t>Mild</t>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>repatriate</t>
   </si>
   <si>
     <t>Died</t>
@@ -53,76 +65,97 @@
     <t>Age</t>
   </si>
   <si>
+    <t>C107199</t>
+  </si>
+  <si>
     <t>AgeGroup</t>
   </si>
   <si>
+    <t>70 to 74</t>
+  </si>
+  <si>
     <t>80+</t>
   </si>
   <si>
-    <t>70 to 74</t>
+    <t>0 to 4</t>
   </si>
   <si>
     <t>DateDied</t>
   </si>
   <si>
-    <t>RegionRes</t>
-  </si>
-  <si>
-    <t>NCR</t>
-  </si>
-  <si>
-    <t>Region VIII: Eastern Visayas</t>
-  </si>
-  <si>
-    <t>RemovalType</t>
-  </si>
-  <si>
-    <t>C124518</t>
-  </si>
-  <si>
-    <t>C136477</t>
-  </si>
-  <si>
-    <t>C143359</t>
-  </si>
-  <si>
-    <t>C146517</t>
-  </si>
-  <si>
-    <t>C150973</t>
+    <t>C138842</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>C140583</t>
+  </si>
+  <si>
+    <t>C148692</t>
+  </si>
+  <si>
+    <t>C160684</t>
+  </si>
+  <si>
+    <t>C163042</t>
+  </si>
+  <si>
+    <t>C170357</t>
+  </si>
+  <si>
+    <t>C172601</t>
   </si>
   <si>
     <t>C175987</t>
   </si>
   <si>
-    <t>C186141</t>
-  </si>
-  <si>
-    <t>C193081</t>
+    <t>C186648</t>
+  </si>
+  <si>
+    <t>C187776</t>
+  </si>
+  <si>
+    <t>C191726</t>
   </si>
   <si>
     <t>C195885</t>
   </si>
   <si>
-    <t>C205865</t>
-  </si>
-  <si>
-    <t>C220287</t>
+    <t>C197669</t>
+  </si>
+  <si>
+    <t>C215362</t>
   </si>
   <si>
     <t>C222162</t>
   </si>
   <si>
-    <t>C236461</t>
-  </si>
-  <si>
-    <t>C242109</t>
-  </si>
-  <si>
-    <t>C254668</t>
-  </si>
-  <si>
-    <t>C266866</t>
+    <t>C245463</t>
+  </si>
+  <si>
+    <t>C251494</t>
+  </si>
+  <si>
+    <t>C255718</t>
+  </si>
+  <si>
+    <t>C263406</t>
+  </si>
+  <si>
+    <t>C264471</t>
+  </si>
+  <si>
+    <t>C269033</t>
   </si>
   <si>
     <t>C272109</t>
@@ -131,100 +164,133 @@
     <t>C277011</t>
   </si>
   <si>
-    <t>C284619</t>
-  </si>
-  <si>
-    <t>C293770</t>
+    <t>C288085</t>
+  </si>
+  <si>
+    <t>C299746</t>
+  </si>
+  <si>
+    <t>C309811</t>
   </si>
   <si>
     <t>C313584</t>
   </si>
   <si>
-    <t>C315711</t>
-  </si>
-  <si>
-    <t>C333387</t>
-  </si>
-  <si>
-    <t>C338270</t>
-  </si>
-  <si>
-    <t>C353533</t>
-  </si>
-  <si>
-    <t>C363434</t>
+    <t>C316030</t>
+  </si>
+  <si>
+    <t>C317035</t>
+  </si>
+  <si>
+    <t>C320495</t>
+  </si>
+  <si>
+    <t>C328823</t>
+  </si>
+  <si>
+    <t>C332226</t>
+  </si>
+  <si>
+    <t>C342744</t>
+  </si>
+  <si>
+    <t>C344177</t>
+  </si>
+  <si>
+    <t>C347490</t>
+  </si>
+  <si>
+    <t>C347653</t>
+  </si>
+  <si>
+    <t>C350196</t>
+  </si>
+  <si>
+    <t>C354802</t>
+  </si>
+  <si>
+    <t>C361199</t>
   </si>
   <si>
     <t>C369464</t>
   </si>
   <si>
-    <t>C369845</t>
-  </si>
-  <si>
-    <t>C370595</t>
-  </si>
-  <si>
-    <t>C377985</t>
-  </si>
-  <si>
-    <t>C381490</t>
-  </si>
-  <si>
-    <t>C398209</t>
-  </si>
-  <si>
-    <t>C398419</t>
-  </si>
-  <si>
-    <t>C410217</t>
+    <t>C384146</t>
+  </si>
+  <si>
+    <t>C384920</t>
+  </si>
+  <si>
+    <t>C392652</t>
+  </si>
+  <si>
+    <t>C397634</t>
+  </si>
+  <si>
+    <t>C405076</t>
+  </si>
+  <si>
+    <t>C408473</t>
   </si>
   <si>
     <t>C422208</t>
   </si>
   <si>
-    <t>C424281</t>
-  </si>
-  <si>
-    <t>C427281</t>
-  </si>
-  <si>
-    <t>C433308</t>
+    <t>C426022</t>
+  </si>
+  <si>
+    <t>C426034</t>
+  </si>
+  <si>
+    <t>C430453</t>
   </si>
   <si>
     <t>C437578</t>
   </si>
   <si>
+    <t>C439736</t>
+  </si>
+  <si>
     <t>C442990</t>
   </si>
   <si>
-    <t>C446450</t>
-  </si>
-  <si>
-    <t>C458715</t>
-  </si>
-  <si>
-    <t>C462524</t>
+    <t>C451655</t>
+  </si>
+  <si>
+    <t>C453517</t>
+  </si>
+  <si>
+    <t>C458500</t>
+  </si>
+  <si>
+    <t>C459826</t>
+  </si>
+  <si>
+    <t>C461711</t>
   </si>
   <si>
     <t>C463408</t>
   </si>
   <si>
+    <t>C473675</t>
+  </si>
+  <si>
     <t>C475358</t>
   </si>
   <si>
-    <t>C477389</t>
-  </si>
-  <si>
-    <t>C483393</t>
-  </si>
-  <si>
-    <t>C490812</t>
-  </si>
-  <si>
-    <t>C493105</t>
-  </si>
-  <si>
-    <t>C497645</t>
+    <t>C475849</t>
+  </si>
+  <si>
+    <t>C481788</t>
+  </si>
+  <si>
+    <t>C493305</t>
+  </si>
+  <si>
+    <t>25 to 29</t>
+  </si>
+  <si>
+    <t>C497773</t>
   </si>
   <si>
     <t>C501190</t>
@@ -233,69 +299,93 @@
     <t>C502388</t>
   </si>
   <si>
-    <t>C502641</t>
-  </si>
-  <si>
-    <t>C514640</t>
-  </si>
-  <si>
-    <t>C530851</t>
-  </si>
-  <si>
-    <t>C535786</t>
-  </si>
-  <si>
-    <t>C551023</t>
-  </si>
-  <si>
-    <t>C555157</t>
-  </si>
-  <si>
-    <t>C555476</t>
-  </si>
-  <si>
-    <t>C571575</t>
-  </si>
-  <si>
-    <t>C571689</t>
-  </si>
-  <si>
-    <t>C575816</t>
-  </si>
-  <si>
-    <t>C579466</t>
+    <t>C505205</t>
+  </si>
+  <si>
+    <t>C505654</t>
+  </si>
+  <si>
+    <t>C507374</t>
+  </si>
+  <si>
+    <t>C507852</t>
+  </si>
+  <si>
+    <t>C511935</t>
+  </si>
+  <si>
+    <t>C512016</t>
+  </si>
+  <si>
+    <t>C527392</t>
+  </si>
+  <si>
+    <t>C528752</t>
+  </si>
+  <si>
+    <t>C547809</t>
+  </si>
+  <si>
+    <t>C552919</t>
+  </si>
+  <si>
+    <t>C587156</t>
   </si>
   <si>
     <t>C588942</t>
   </si>
   <si>
+    <t>C600358</t>
+  </si>
+  <si>
+    <t>C600512</t>
+  </si>
+  <si>
     <t>C601689</t>
   </si>
   <si>
-    <t>C613718</t>
+    <t>C602580</t>
+  </si>
+  <si>
+    <t>C614625</t>
   </si>
   <si>
     <t>C616074</t>
   </si>
   <si>
-    <t>C621215</t>
-  </si>
-  <si>
-    <t>C632994</t>
-  </si>
-  <si>
-    <t>C643313</t>
-  </si>
-  <si>
-    <t>C649875</t>
-  </si>
-  <si>
-    <t>C660787</t>
+    <t>C619544</t>
+  </si>
+  <si>
+    <t>C624453</t>
+  </si>
+  <si>
+    <t>C624502</t>
+  </si>
+  <si>
+    <t>C637330</t>
+  </si>
+  <si>
+    <t>C640670</t>
+  </si>
+  <si>
+    <t>C641342</t>
+  </si>
+  <si>
+    <t>C652691</t>
   </si>
   <si>
     <t>C661063</t>
   </si>
   <si>
+    <t>C666927</t>
+  </si>
+  <si>
+    <t>C668503</t>
+  </si>
+  <si>
+    <t>C672848</t>
+  </si>
+  <si>
     <t>C673170</t>
   </si>
   <si>
@@ -305,106 +395,145 @@
     <t>C696145</t>
   </si>
   <si>
-    <t>C699710</t>
+    <t>C697677</t>
   </si>
   <si>
     <t>C703020</t>
   </si>
   <si>
-    <t>C704046</t>
-  </si>
-  <si>
-    <t>C722355</t>
-  </si>
-  <si>
-    <t>C735548</t>
-  </si>
-  <si>
-    <t>C748144</t>
-  </si>
-  <si>
-    <t>C753962</t>
-  </si>
-  <si>
-    <t>C756513</t>
-  </si>
-  <si>
-    <t>C758121</t>
-  </si>
-  <si>
-    <t>C771355</t>
-  </si>
-  <si>
-    <t>C816795</t>
-  </si>
-  <si>
-    <t>C838404</t>
-  </si>
-  <si>
-    <t>C842755</t>
-  </si>
-  <si>
-    <t>C859991</t>
-  </si>
-  <si>
-    <t>C877255</t>
-  </si>
-  <si>
-    <t>C883409</t>
-  </si>
-  <si>
-    <t>C886790</t>
+    <t>C713145</t>
+  </si>
+  <si>
+    <t>C733465</t>
+  </si>
+  <si>
+    <t>C751022</t>
+  </si>
+  <si>
+    <t>C757315</t>
+  </si>
+  <si>
+    <t>C758664</t>
+  </si>
+  <si>
+    <t>C764917</t>
+  </si>
+  <si>
+    <t>C767258</t>
+  </si>
+  <si>
+    <t>C772231</t>
+  </si>
+  <si>
+    <t>C778860</t>
+  </si>
+  <si>
+    <t>C783406</t>
+  </si>
+  <si>
+    <t>C783580</t>
+  </si>
+  <si>
+    <t>C784207</t>
+  </si>
+  <si>
+    <t>C789184</t>
+  </si>
+  <si>
+    <t>C793885</t>
+  </si>
+  <si>
+    <t>C795371</t>
+  </si>
+  <si>
+    <t>C801919</t>
+  </si>
+  <si>
+    <t>C815095</t>
+  </si>
+  <si>
+    <t>C817202</t>
+  </si>
+  <si>
+    <t>C818429</t>
+  </si>
+  <si>
+    <t>C821098</t>
+  </si>
+  <si>
+    <t>C826619</t>
+  </si>
+  <si>
+    <t>C832662</t>
+  </si>
+  <si>
+    <t>C859698</t>
+  </si>
+  <si>
+    <t>C868624</t>
+  </si>
+  <si>
+    <t>C880666</t>
+  </si>
+  <si>
+    <t>C890096</t>
   </si>
   <si>
     <t>C893026</t>
   </si>
   <si>
-    <t>C901439</t>
-  </si>
-  <si>
-    <t>C901756</t>
-  </si>
-  <si>
-    <t>C904936</t>
+    <t>C899160</t>
+  </si>
+  <si>
+    <t>C899164</t>
   </si>
   <si>
     <t>C905065</t>
   </si>
   <si>
-    <t>C916030</t>
-  </si>
-  <si>
-    <t>C916358</t>
+    <t>C907960</t>
+  </si>
+  <si>
+    <t>C911299</t>
+  </si>
+  <si>
+    <t>C912284</t>
+  </si>
+  <si>
+    <t>C919967</t>
   </si>
   <si>
     <t>C923084</t>
   </si>
   <si>
-    <t>C940058</t>
-  </si>
-  <si>
-    <t>C955158</t>
+    <t>C923849</t>
+  </si>
+  <si>
+    <t>C925599</t>
+  </si>
+  <si>
+    <t>C926304</t>
+  </si>
+  <si>
+    <t>C938451</t>
   </si>
   <si>
     <t>C966417</t>
   </si>
   <si>
-    <t>C968137</t>
-  </si>
-  <si>
-    <t>Region VI: Western Visayas</t>
+    <t>C968494</t>
   </si>
   <si>
     <t>C973010</t>
   </si>
   <si>
-    <t>C982955</t>
-  </si>
-  <si>
-    <t>C993263</t>
-  </si>
-  <si>
-    <t>C998083</t>
+    <t>C975389</t>
+  </si>
+  <si>
+    <t>C981350</t>
+  </si>
+  <si>
+    <t>C993075</t>
   </si>
   <si>
     <t>C999042</t>
@@ -691,21 +820,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -716,93 +845,93 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43968.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
+      <c r="D8" s="2">
+        <v>43967.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -810,23 +939,20 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -835,10 +961,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -846,13 +972,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -860,24 +986,21 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -885,57 +1008,60 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -943,10 +1069,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -954,10 +1083,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -965,13 +1094,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
@@ -979,68 +1108,74 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
@@ -1048,82 +1183,82 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
@@ -1131,21 +1266,21 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
@@ -1156,35 +1291,35 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D42" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
@@ -1192,21 +1327,27 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="2">
-        <v>43968.0</v>
+        <v>11</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
@@ -1214,49 +1355,46 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D46" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
@@ -1264,90 +1402,96 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
@@ -1355,24 +1499,21 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D58" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
@@ -1380,96 +1521,99 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="D63" s="2">
+        <v>43957.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="2">
-        <v>43968.0</v>
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D66" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
@@ -1477,13 +1621,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
@@ -1491,57 +1632,60 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D70" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
@@ -1549,10 +1693,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
@@ -1560,35 +1704,35 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
@@ -1596,13 +1740,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
@@ -1610,35 +1754,35 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D79" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
@@ -1646,10 +1790,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
@@ -1657,21 +1804,21 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>9</v>
@@ -1679,10 +1826,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>10</v>
@@ -1693,23 +1840,20 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -1718,34 +1862,34 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -1754,10 +1898,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>9</v>
@@ -1765,70 +1912,73 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D93" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -1837,35 +1987,35 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D98" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>9</v>
@@ -1873,85 +2023,82 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D101" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="D103" s="1">
-        <v>70.0</v>
+        <v>8</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D104" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>9</v>
@@ -1959,24 +2106,27 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>9</v>
@@ -1984,43 +2134,46 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D111" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>9</v>
@@ -2028,13 +2181,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>9</v>
@@ -2042,57 +2192,60 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D116" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D118" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>9</v>
@@ -2100,13 +2253,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>9</v>
@@ -2114,21 +2264,21 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>9</v>
@@ -2136,24 +2286,27 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>9</v>
@@ -2161,10 +2314,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>9</v>
@@ -2172,49 +2325,49 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D128" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>9</v>
@@ -2222,10 +2375,10 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>9</v>
@@ -2233,43 +2386,46 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D133" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>10</v>
@@ -2280,21 +2436,21 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>9</v>
@@ -2302,35 +2458,41 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="2">
-        <v>43968.0</v>
+        <v>16</v>
+      </c>
+      <c r="C137" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="D137" s="1">
+        <v>80.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>9</v>
@@ -2338,24 +2500,21 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D140" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>9</v>
@@ -2363,57 +2522,57 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="2">
-        <v>43968.0</v>
+        <v>11</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>9</v>
@@ -2421,13 +2580,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>9</v>
@@ -2435,21 +2594,21 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>9</v>
@@ -2457,121 +2616,121 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="2">
-        <v>43968.0</v>
+        <v>18</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D157" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>9</v>
@@ -2579,38 +2738,38 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="D161" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>9</v>
@@ -2618,10 +2777,10 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>9</v>
@@ -2629,115 +2788,124 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" s="2">
-        <v>43968.0</v>
+        <v>11</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D166" s="1">
+        <v>28.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D167" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D168" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>9</v>
@@ -2745,13 +2913,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>9</v>
@@ -2759,21 +2924,24 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>9</v>
@@ -2781,13 +2949,10 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>9</v>
@@ -2795,21 +2960,24 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>9</v>
@@ -2817,46 +2985,46 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>9</v>
@@ -2864,103 +3032,106 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D184" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D185" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D187" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D190" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D191" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -2969,35 +3140,35 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D193" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D194" s="2">
-        <v>43968.0</v>
+        <v>16</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>9</v>
@@ -3005,45 +3176,42 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D196" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D197" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D198" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -3052,48 +3220,48 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D200" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D202" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -3102,10 +3270,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>9</v>
@@ -3113,57 +3284,63 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D205" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D206" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D207" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>9</v>
@@ -3171,38 +3348,35 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D210" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D211" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>9</v>
@@ -3210,21 +3384,21 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>9</v>
@@ -3232,59 +3406,59 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D216" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D217" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -3293,10 +3467,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>9</v>
@@ -3304,82 +3481,82 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D224" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D225" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D226" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>9</v>
@@ -3387,13 +3564,10 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>9</v>
@@ -3401,24 +3575,24 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>9</v>
@@ -3426,32 +3600,35 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D231" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D232" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>9</v>
@@ -3459,60 +3636,63 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D236" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>9</v>
@@ -3520,32 +3700,32 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D239" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D240" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>9</v>
@@ -3553,35 +3733,35 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D242" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D243" s="2">
-        <v>43968.0</v>
+        <v>5</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>9</v>
@@ -3589,13 +3769,13 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>9</v>
@@ -3603,59 +3783,62 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D246" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D247" s="2">
-        <v>43968.0</v>
+        <v>11</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C250" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="1" t="s">
@@ -3664,10 +3847,13 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>9</v>
@@ -3675,34 +3861,34 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D252" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D253" s="2">
-        <v>43968.0</v>
+        <v>11</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C254" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -3711,10 +3897,13 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>9</v>
@@ -3722,32 +3911,35 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D256" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D257" s="2">
-        <v>43968.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>9</v>
@@ -3755,12 +3947,9 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C259" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="1" t="s">
@@ -3769,82 +3958,85 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D260" s="2">
-        <v>43968.0</v>
+        <v>43936.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D263" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="D265" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>9</v>
@@ -3852,10 +4044,10 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>9</v>
@@ -3863,21 +4055,24 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D268" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>9</v>
@@ -3885,35 +4080,35 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D270" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D271" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>9</v>
@@ -3921,52 +4116,1174 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D273" s="2">
+        <v>43969.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D274" s="2">
-        <v>43968.0</v>
+        <v>8</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C275" s="2">
-        <v>43929.0</v>
+        <v>12</v>
       </c>
       <c r="D275" s="2">
-        <v>43945.0</v>
+        <v>43969.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D276" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C280" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D288" s="2">
+        <v>43943.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D319" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C320" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D326" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C329" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C331" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C335" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D341" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D343" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D349" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D352" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D355" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D362" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D365" s="2">
+        <v>43969.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C368" s="2">
+        <v>43945.0</v>
+      </c>
+      <c r="D368" s="2">
+        <v>43929.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4000,69 +5317,69 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>44.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>70.0</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>80.0</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
@@ -4070,13 +5387,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43929.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43945.0</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>1.0</v>
@@ -4084,15 +5401,43 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43945.0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43929.0</v>
       </c>
       <c r="D8" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
         <v>1.0</v>
       </c>
     </row>

--- a/Case Info Changelog.xlsx
+++ b/Case Info Changelog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="234">
   <si>
     <t>CaseCode</t>
   </si>
@@ -29,130 +29,154 @@
     <t>Records Changed</t>
   </si>
   <si>
+    <t>C106037</t>
+  </si>
+  <si>
     <t>HealthStatus</t>
   </si>
   <si>
-    <t>C104325</t>
-  </si>
-  <si>
     <t>Mild</t>
   </si>
   <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>DateRecover</t>
+  </si>
+  <si>
+    <t>RegionRes</t>
+  </si>
+  <si>
+    <t>repatriate</t>
+  </si>
+  <si>
+    <t>Repatriate</t>
+  </si>
+  <si>
+    <t>Asymptomatic</t>
+  </si>
+  <si>
+    <t>Died</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>DateDied</t>
+  </si>
+  <si>
+    <t>DateRepRem</t>
+  </si>
+  <si>
     <t>RemovalType</t>
   </si>
   <si>
-    <t>Recovered</t>
-  </si>
-  <si>
-    <t>Asymptomatic</t>
-  </si>
-  <si>
-    <t>RegionRes</t>
-  </si>
-  <si>
-    <t>DateRepRem</t>
-  </si>
-  <si>
-    <t>NCR</t>
-  </si>
-  <si>
-    <t>repatriate</t>
-  </si>
-  <si>
-    <t>Died</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>C107199</t>
-  </si>
-  <si>
-    <t>AgeGroup</t>
-  </si>
-  <si>
-    <t>70 to 74</t>
-  </si>
-  <si>
-    <t>80+</t>
-  </si>
-  <si>
-    <t>0 to 4</t>
-  </si>
-  <si>
-    <t>DateDied</t>
+    <t>C108229</t>
+  </si>
+  <si>
+    <t>C116983</t>
+  </si>
+  <si>
+    <t>C119184</t>
+  </si>
+  <si>
+    <t>C121302</t>
   </si>
   <si>
     <t>C138842</t>
   </si>
   <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>C140583</t>
-  </si>
-  <si>
-    <t>C148692</t>
-  </si>
-  <si>
-    <t>C160684</t>
+    <t>C143488</t>
+  </si>
+  <si>
+    <t>C146866</t>
+  </si>
+  <si>
+    <t>C147944</t>
+  </si>
+  <si>
+    <t>C149724</t>
+  </si>
+  <si>
+    <t>C154232</t>
+  </si>
+  <si>
+    <t>C155143</t>
+  </si>
+  <si>
+    <t>C159854</t>
   </si>
   <si>
     <t>C163042</t>
   </si>
   <si>
-    <t>C170357</t>
-  </si>
-  <si>
-    <t>C172601</t>
-  </si>
-  <si>
     <t>C175987</t>
   </si>
   <si>
-    <t>C186648</t>
-  </si>
-  <si>
-    <t>C187776</t>
-  </si>
-  <si>
-    <t>C191726</t>
+    <t>C176073</t>
+  </si>
+  <si>
+    <t>C182556</t>
   </si>
   <si>
     <t>C195885</t>
   </si>
   <si>
-    <t>C197669</t>
-  </si>
-  <si>
-    <t>C215362</t>
+    <t>C196323</t>
+  </si>
+  <si>
+    <t>C201505</t>
+  </si>
+  <si>
+    <t>C203526</t>
+  </si>
+  <si>
+    <t>C205256</t>
+  </si>
+  <si>
+    <t>C206954</t>
+  </si>
+  <si>
+    <t>C207988</t>
+  </si>
+  <si>
+    <t>C218797</t>
   </si>
   <si>
     <t>C222162</t>
   </si>
   <si>
-    <t>C245463</t>
-  </si>
-  <si>
-    <t>C251494</t>
-  </si>
-  <si>
-    <t>C255718</t>
-  </si>
-  <si>
-    <t>C263406</t>
-  </si>
-  <si>
-    <t>C264471</t>
+    <t>C233660</t>
+  </si>
+  <si>
+    <t>C233720</t>
+  </si>
+  <si>
+    <t>C233809</t>
+  </si>
+  <si>
+    <t>C237789</t>
+  </si>
+  <si>
+    <t>C246399</t>
+  </si>
+  <si>
+    <t>C250754</t>
+  </si>
+  <si>
+    <t>Admitted</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>C253989</t>
+  </si>
+  <si>
+    <t>C265429</t>
+  </si>
+  <si>
+    <t>C267109</t>
   </si>
   <si>
     <t>C269033</t>
@@ -161,136 +185,172 @@
     <t>C272109</t>
   </si>
   <si>
+    <t>C274965</t>
+  </si>
+  <si>
     <t>C277011</t>
   </si>
   <si>
-    <t>C288085</t>
-  </si>
-  <si>
-    <t>C299746</t>
-  </si>
-  <si>
-    <t>C309811</t>
+    <t>C283870</t>
+  </si>
+  <si>
+    <t>C292424</t>
+  </si>
+  <si>
+    <t>C292820</t>
+  </si>
+  <si>
+    <t>C296962</t>
   </si>
   <si>
     <t>C313584</t>
   </si>
   <si>
-    <t>C316030</t>
-  </si>
-  <si>
-    <t>C317035</t>
-  </si>
-  <si>
-    <t>C320495</t>
-  </si>
-  <si>
-    <t>C328823</t>
+    <t>C314987</t>
+  </si>
+  <si>
+    <t>C318560</t>
+  </si>
+  <si>
+    <t>C326090</t>
+  </si>
+  <si>
+    <t>C329635</t>
+  </si>
+  <si>
+    <t>C329700</t>
+  </si>
+  <si>
+    <t>C331197</t>
   </si>
   <si>
     <t>C332226</t>
   </si>
   <si>
-    <t>C342744</t>
-  </si>
-  <si>
-    <t>C344177</t>
+    <t>C333420</t>
   </si>
   <si>
     <t>C347490</t>
   </si>
   <si>
-    <t>C347653</t>
-  </si>
-  <si>
-    <t>C350196</t>
-  </si>
-  <si>
-    <t>C354802</t>
-  </si>
-  <si>
-    <t>C361199</t>
+    <t>C363888</t>
+  </si>
+  <si>
+    <t>C365629</t>
+  </si>
+  <si>
+    <t>C367034</t>
   </si>
   <si>
     <t>C369464</t>
   </si>
   <si>
-    <t>C384146</t>
-  </si>
-  <si>
-    <t>C384920</t>
-  </si>
-  <si>
-    <t>C392652</t>
-  </si>
-  <si>
-    <t>C397634</t>
-  </si>
-  <si>
-    <t>C405076</t>
-  </si>
-  <si>
-    <t>C408473</t>
+    <t>C370243</t>
+  </si>
+  <si>
+    <t>C372377</t>
+  </si>
+  <si>
+    <t>C382491</t>
+  </si>
+  <si>
+    <t>C390720</t>
+  </si>
+  <si>
+    <t>C397633</t>
+  </si>
+  <si>
+    <t>C400436</t>
+  </si>
+  <si>
+    <t>C405541</t>
+  </si>
+  <si>
+    <t>C406043</t>
+  </si>
+  <si>
+    <t>C409004</t>
+  </si>
+  <si>
+    <t>C413194</t>
+  </si>
+  <si>
+    <t>C415993</t>
+  </si>
+  <si>
+    <t>C418871</t>
+  </si>
+  <si>
+    <t>C420646</t>
   </si>
   <si>
     <t>C422208</t>
   </si>
   <si>
-    <t>C426022</t>
-  </si>
-  <si>
-    <t>C426034</t>
-  </si>
-  <si>
-    <t>C430453</t>
-  </si>
-  <si>
-    <t>C437578</t>
-  </si>
-  <si>
-    <t>C439736</t>
+    <t>C425194</t>
+  </si>
+  <si>
+    <t>C425433</t>
+  </si>
+  <si>
+    <t>C427600</t>
+  </si>
+  <si>
+    <t>C429740</t>
+  </si>
+  <si>
+    <t>C440567</t>
+  </si>
+  <si>
+    <t>C442339</t>
   </si>
   <si>
     <t>C442990</t>
   </si>
   <si>
-    <t>C451655</t>
-  </si>
-  <si>
-    <t>C453517</t>
-  </si>
-  <si>
-    <t>C458500</t>
-  </si>
-  <si>
-    <t>C459826</t>
-  </si>
-  <si>
-    <t>C461711</t>
+    <t>C448711</t>
+  </si>
+  <si>
+    <t>C450300</t>
+  </si>
+  <si>
+    <t>C453665</t>
+  </si>
+  <si>
+    <t>C454961</t>
+  </si>
+  <si>
+    <t>C455626</t>
+  </si>
+  <si>
+    <t>C456303</t>
   </si>
   <si>
     <t>C463408</t>
   </si>
   <si>
-    <t>C473675</t>
+    <t>C464597</t>
+  </si>
+  <si>
+    <t>C472792</t>
+  </si>
+  <si>
+    <t>C473013</t>
+  </si>
+  <si>
+    <t>C475024</t>
+  </si>
+  <si>
+    <t>C475127</t>
   </si>
   <si>
     <t>C475358</t>
   </si>
   <si>
-    <t>C475849</t>
-  </si>
-  <si>
     <t>C481788</t>
   </si>
   <si>
-    <t>C493305</t>
-  </si>
-  <si>
-    <t>25 to 29</t>
-  </si>
-  <si>
-    <t>C497773</t>
+    <t>C489615</t>
   </si>
   <si>
     <t>C501190</t>
@@ -299,76 +359,103 @@
     <t>C502388</t>
   </si>
   <si>
-    <t>C505205</t>
-  </si>
-  <si>
-    <t>C505654</t>
-  </si>
-  <si>
-    <t>C507374</t>
-  </si>
-  <si>
-    <t>C507852</t>
-  </si>
-  <si>
-    <t>C511935</t>
-  </si>
-  <si>
-    <t>C512016</t>
-  </si>
-  <si>
-    <t>C527392</t>
-  </si>
-  <si>
-    <t>C528752</t>
-  </si>
-  <si>
-    <t>C547809</t>
-  </si>
-  <si>
-    <t>C552919</t>
-  </si>
-  <si>
-    <t>C587156</t>
+    <t>C505698</t>
+  </si>
+  <si>
+    <t>C509749</t>
+  </si>
+  <si>
+    <t>C519887</t>
+  </si>
+  <si>
+    <t>C529185</t>
+  </si>
+  <si>
+    <t>C531557</t>
+  </si>
+  <si>
+    <t>C537006</t>
+  </si>
+  <si>
+    <t>C553756</t>
+  </si>
+  <si>
+    <t>C554484</t>
+  </si>
+  <si>
+    <t>C560421</t>
+  </si>
+  <si>
+    <t>C563069</t>
+  </si>
+  <si>
+    <t>C567073</t>
+  </si>
+  <si>
+    <t>C574837</t>
+  </si>
+  <si>
+    <t>C574950</t>
+  </si>
+  <si>
+    <t>C575162</t>
+  </si>
+  <si>
+    <t>C575206</t>
+  </si>
+  <si>
+    <t>C582348</t>
+  </si>
+  <si>
+    <t>C586369</t>
   </si>
   <si>
     <t>C588942</t>
   </si>
   <si>
-    <t>C600358</t>
-  </si>
-  <si>
-    <t>C600512</t>
+    <t>C596568</t>
   </si>
   <si>
     <t>C601689</t>
   </si>
   <si>
-    <t>C602580</t>
-  </si>
-  <si>
-    <t>C614625</t>
+    <t>C606481</t>
+  </si>
+  <si>
+    <t>C607794</t>
+  </si>
+  <si>
+    <t>C609145</t>
   </si>
   <si>
     <t>C616074</t>
   </si>
   <si>
-    <t>C619544</t>
-  </si>
-  <si>
-    <t>C624453</t>
-  </si>
-  <si>
-    <t>C624502</t>
-  </si>
-  <si>
-    <t>C637330</t>
-  </si>
-  <si>
-    <t>C640670</t>
-  </si>
-  <si>
-    <t>C641342</t>
+    <t>C619754</t>
+  </si>
+  <si>
+    <t>C622702</t>
+  </si>
+  <si>
+    <t>C626379</t>
+  </si>
+  <si>
+    <t>C631498</t>
+  </si>
+  <si>
+    <t>C641326</t>
+  </si>
+  <si>
+    <t>C642083</t>
+  </si>
+  <si>
+    <t>C643897</t>
+  </si>
+  <si>
+    <t>C651014</t>
+  </si>
+  <si>
+    <t>C651965</t>
   </si>
   <si>
     <t>C652691</t>
@@ -377,130 +464,178 @@
     <t>C661063</t>
   </si>
   <si>
-    <t>C666927</t>
-  </si>
-  <si>
-    <t>C668503</t>
-  </si>
-  <si>
-    <t>C672848</t>
+    <t>C663843</t>
+  </si>
+  <si>
+    <t>C665456</t>
+  </si>
+  <si>
+    <t>C673125</t>
   </si>
   <si>
     <t>C673170</t>
   </si>
   <si>
+    <t>C674768</t>
+  </si>
+  <si>
     <t>C677990</t>
   </si>
   <si>
+    <t>C678776</t>
+  </si>
+  <si>
+    <t>C683887</t>
+  </si>
+  <si>
+    <t>C686567</t>
+  </si>
+  <si>
+    <t>C686601</t>
+  </si>
+  <si>
+    <t>C688684</t>
+  </si>
+  <si>
     <t>C696145</t>
   </si>
   <si>
-    <t>C697677</t>
+    <t>C701080</t>
   </si>
   <si>
     <t>C703020</t>
   </si>
   <si>
-    <t>C713145</t>
-  </si>
-  <si>
-    <t>C733465</t>
+    <t>C710679</t>
+  </si>
+  <si>
+    <t>C712840</t>
+  </si>
+  <si>
+    <t>C714245</t>
+  </si>
+  <si>
+    <t>C720474</t>
+  </si>
+  <si>
+    <t>C725146</t>
+  </si>
+  <si>
+    <t>C733004</t>
+  </si>
+  <si>
+    <t>C742031</t>
   </si>
   <si>
     <t>C751022</t>
   </si>
   <si>
+    <t>C752602</t>
+  </si>
+  <si>
     <t>C757315</t>
   </si>
   <si>
-    <t>C758664</t>
-  </si>
-  <si>
-    <t>C764917</t>
-  </si>
-  <si>
-    <t>C767258</t>
-  </si>
-  <si>
-    <t>C772231</t>
-  </si>
-  <si>
-    <t>C778860</t>
-  </si>
-  <si>
-    <t>C783406</t>
-  </si>
-  <si>
-    <t>C783580</t>
+    <t>C759369</t>
+  </si>
+  <si>
+    <t>C765297</t>
+  </si>
+  <si>
+    <t>C769205</t>
+  </si>
+  <si>
+    <t>C777010</t>
+  </si>
+  <si>
+    <t>C782919</t>
   </si>
   <si>
     <t>C784207</t>
   </si>
   <si>
-    <t>C789184</t>
-  </si>
-  <si>
-    <t>C793885</t>
-  </si>
-  <si>
-    <t>C795371</t>
-  </si>
-  <si>
-    <t>C801919</t>
-  </si>
-  <si>
-    <t>C815095</t>
-  </si>
-  <si>
-    <t>C817202</t>
-  </si>
-  <si>
-    <t>C818429</t>
-  </si>
-  <si>
-    <t>C821098</t>
-  </si>
-  <si>
-    <t>C826619</t>
+    <t>C797742</t>
+  </si>
+  <si>
+    <t>C800755</t>
+  </si>
+  <si>
+    <t>C806513</t>
+  </si>
+  <si>
+    <t>C812206</t>
+  </si>
+  <si>
+    <t>C813925</t>
+  </si>
+  <si>
+    <t>C819062</t>
+  </si>
+  <si>
+    <t>C819318</t>
+  </si>
+  <si>
+    <t>C831271</t>
   </si>
   <si>
     <t>C832662</t>
   </si>
   <si>
-    <t>C859698</t>
-  </si>
-  <si>
-    <t>C868624</t>
-  </si>
-  <si>
-    <t>C880666</t>
-  </si>
-  <si>
-    <t>C890096</t>
+    <t>C833600</t>
+  </si>
+  <si>
+    <t>C842600</t>
+  </si>
+  <si>
+    <t>C845364</t>
+  </si>
+  <si>
+    <t>C845434</t>
+  </si>
+  <si>
+    <t>C847142</t>
+  </si>
+  <si>
+    <t>C847679</t>
+  </si>
+  <si>
+    <t>C860299</t>
+  </si>
+  <si>
+    <t>C862152</t>
+  </si>
+  <si>
+    <t>C862932</t>
+  </si>
+  <si>
+    <t>C863208</t>
+  </si>
+  <si>
+    <t>C867306</t>
+  </si>
+  <si>
+    <t>C879568</t>
+  </si>
+  <si>
+    <t>C890764</t>
   </si>
   <si>
     <t>C893026</t>
   </si>
   <si>
-    <t>C899160</t>
-  </si>
-  <si>
-    <t>C899164</t>
+    <t>C894582</t>
+  </si>
+  <si>
+    <t>C904404</t>
   </si>
   <si>
     <t>C905065</t>
   </si>
   <si>
-    <t>C907960</t>
-  </si>
-  <si>
-    <t>C911299</t>
-  </si>
-  <si>
-    <t>C912284</t>
-  </si>
-  <si>
-    <t>C919967</t>
+    <t>C908039</t>
+  </si>
+  <si>
+    <t>C910672</t>
   </si>
   <si>
     <t>C923084</t>
@@ -509,31 +644,70 @@
     <t>C923849</t>
   </si>
   <si>
-    <t>C925599</t>
-  </si>
-  <si>
-    <t>C926304</t>
-  </si>
-  <si>
-    <t>C938451</t>
+    <t>C924853</t>
+  </si>
+  <si>
+    <t>C936463</t>
+  </si>
+  <si>
+    <t>C936832</t>
+  </si>
+  <si>
+    <t>C947837</t>
+  </si>
+  <si>
+    <t>C948438</t>
+  </si>
+  <si>
+    <t>C951006</t>
+  </si>
+  <si>
+    <t>C956301</t>
   </si>
   <si>
     <t>C966417</t>
   </si>
   <si>
+    <t>C966650</t>
+  </si>
+  <si>
+    <t>C967110</t>
+  </si>
+  <si>
+    <t>C967148</t>
+  </si>
+  <si>
     <t>C968494</t>
   </si>
   <si>
+    <t>C970640</t>
+  </si>
+  <si>
     <t>C973010</t>
   </si>
   <si>
-    <t>C975389</t>
-  </si>
-  <si>
-    <t>C981350</t>
-  </si>
-  <si>
-    <t>C993075</t>
+    <t>C977241</t>
+  </si>
+  <si>
+    <t>C980606</t>
+  </si>
+  <si>
+    <t>C982349</t>
+  </si>
+  <si>
+    <t>C986390</t>
+  </si>
+  <si>
+    <t>C989844</t>
+  </si>
+  <si>
+    <t>C990386</t>
+  </si>
+  <si>
+    <t>C992341</t>
+  </si>
+  <si>
+    <t>Region V: Bicol Region</t>
   </si>
   <si>
     <t>C999042</t>
@@ -820,4470 +994,6904 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43944.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.0</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43933.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43967.0</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>43969.0</v>
+        <v>43947.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2">
-        <v>43969.0</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43967.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>43969.0</v>
+        <v>43941.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43942.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D26" s="2">
-        <v>43969.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43950.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2">
-        <v>43969.0</v>
+        <v>43937.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>43969.0</v>
+        <v>43957.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D41" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D48" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D49" s="2">
+        <v>43939.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D53" s="2">
+        <v>43925.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D55" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2">
-        <v>43969.0</v>
+        <v>43935.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D59" s="2">
+        <v>43925.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D60" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2">
-        <v>43957.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D65" s="2">
+        <v>43954.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2">
-        <v>43969.0</v>
+        <v>43942.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D74" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2">
-        <v>43969.0</v>
+        <v>43942.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2">
-        <v>43969.0</v>
+        <v>43941.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D80" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D82" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2">
-        <v>43969.0</v>
+        <v>43948.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2">
-        <v>43969.0</v>
+        <v>50</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D88" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2">
-        <v>43969.0</v>
+        <v>43938.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D92" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2">
-        <v>43969.0</v>
+        <v>43944.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D95" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2">
-        <v>43969.0</v>
+        <v>43948.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C99" s="2">
+        <v>43957.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D102" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2">
-        <v>43969.0</v>
+        <v>43927.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D107" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D108" s="2">
+        <v>43959.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D110" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2">
-        <v>43969.0</v>
+        <v>43928.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D114" s="2">
+        <v>43942.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D115" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D118" s="2">
-        <v>43969.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D120" s="2">
+        <v>43952.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D124" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D125" s="2">
+        <v>43926.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D129" s="2">
+        <v>43962.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2">
-        <v>43969.0</v>
+        <v>43895.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="D137" s="1">
-        <v>80.0</v>
+        <v>9</v>
+      </c>
+      <c r="D137" s="2">
+        <v>43924.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D139" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D142" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143" s="1">
-        <v>0.0</v>
+        <v>6</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="D144" s="2">
+        <v>43949.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D149" s="2">
+        <v>43929.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D150" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C151" s="1">
-        <v>0.0</v>
+        <v>9</v>
+      </c>
+      <c r="D151" s="2">
+        <v>43941.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>21</v>
+      <c r="D152" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D153" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D156" s="2">
+        <v>43946.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D158" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D163" s="2">
+        <v>43923.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D164" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" s="1">
-        <v>28.0</v>
+        <v>6</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2">
-        <v>43969.0</v>
+        <v>43932.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D169" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D170" s="2">
+        <v>43965.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D173" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D174" s="2">
+        <v>43950.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D177" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D178" s="2">
-        <v>43969.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C181" s="1">
-        <v>0.0</v>
+        <v>9</v>
+      </c>
+      <c r="D181" s="2">
+        <v>43952.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="D182" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D185" s="2">
+        <v>43931.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D188" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D190" s="2">
+        <v>43949.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D191" s="2">
-        <v>43969.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="D193" s="2">
+        <v>43956.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C194" s="1">
-        <v>0.0</v>
+        <v>17</v>
+      </c>
+      <c r="D194" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2">
-        <v>43969.0</v>
+        <v>43940.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D197" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D202" s="2">
-        <v>43969.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D204" s="2">
+        <v>43954.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D206" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D208" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D209" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2">
-        <v>43969.0</v>
+        <v>43934.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D213" s="2">
-        <v>43969.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D215" s="2">
+        <v>43964.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D216" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2">
-        <v>43969.0</v>
+        <v>43946.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D223" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2">
-        <v>43969.0</v>
+        <v>43943.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D228" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D229" s="2">
-        <v>43969.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2">
-        <v>43969.0</v>
+        <v>43932.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D233" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D234" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D237" s="2">
+        <v>43923.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D238" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D240" s="2">
+        <v>43941.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D243" s="2">
+        <v>43925.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D245" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D246" s="2">
-        <v>43969.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D247" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D248" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D250" s="2">
+        <v>43958.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D251" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D252" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D253" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2">
-        <v>43969.0</v>
+        <v>43937.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D257" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2">
-        <v>43936.0</v>
+        <v>43926.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D262" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2">
-        <v>43969.0</v>
+        <v>43966.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D266" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D269" s="2">
+        <v>43952.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D270" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D273" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D274" s="2">
+        <v>43959.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D275" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D276" s="2">
+        <v>43963.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D278" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C280" s="1">
-        <v>0.0</v>
+        <v>6</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>21</v>
+      <c r="D281" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D282" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D283" s="2">
-        <v>43969.0</v>
+        <v>43941.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D286" s="2">
-        <v>43969.0</v>
+        <v>43935.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D287" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D288" s="2">
-        <v>43943.0</v>
+        <v>6</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D290" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D292" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D296" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D298" s="2">
-        <v>43969.0</v>
+        <v>43907.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D300" s="2">
+        <v>43945.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D301" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D305" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D306" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D307" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D308" s="2">
+        <v>43950.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D310" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D311" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D312" s="2">
+        <v>43930.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D315" s="2">
-        <v>43969.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D316" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D319" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C320" s="1">
-        <v>0.0</v>
+        <v>9</v>
+      </c>
+      <c r="D320" s="2">
+        <v>43959.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D322" s="2">
+        <v>43941.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D323" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D324" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D326" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D327" s="2">
+        <v>43926.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="D328" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C329" s="1">
-        <v>0.0</v>
+        <v>18</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C331" s="1">
-        <v>0.0</v>
+        <v>17</v>
+      </c>
+      <c r="D331" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="D332" s="2">
+        <v>43952.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C335" s="1">
-        <v>0.0</v>
+        <v>17</v>
+      </c>
+      <c r="D335" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D336" s="2">
+        <v>43929.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D337" s="2">
-        <v>43969.0</v>
+        <v>18</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D339" s="2">
+        <v>43942.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D340" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D341" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D343" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D346" s="2">
+        <v>43953.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D347" s="2">
+        <v>43935.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D349" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D352" s="2">
-        <v>43969.0</v>
+        <v>43952.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D355" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D355" s="2">
-        <v>43969.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C356" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B357" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C357" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D357" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D359" s="2">
+        <v>43970.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D360" s="2">
-        <v>43969.0</v>
+        <v>43957.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D362" s="2">
-        <v>43969.0</v>
+        <v>43970.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="D363" s="2">
+        <v>43944.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D365" s="2">
-        <v>43969.0</v>
+        <v>6</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C368" s="2">
-        <v>43945.0</v>
-      </c>
-      <c r="D368" s="2">
-        <v>43929.0</v>
+        <v>18</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D369" s="2">
+        <v>43942.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D370" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D375" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D376" s="2">
+        <v>43935.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" s="2">
+        <v>43960.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D381" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D383" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D385" s="2">
+        <v>43961.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D388" s="2">
+        <v>43946.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D389" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D392" s="2">
+        <v>43959.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D393" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D398" s="2">
+        <v>43952.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D399" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C400" s="2">
+        <v>43936.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D403" s="2">
+        <v>43960.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D404" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B407" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="D407" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D411" s="2">
+        <v>43940.0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D412" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D413" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D369" s="1" t="s">
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C414" s="2">
+        <v>43943.0</v>
+      </c>
+      <c r="D414" s="2">
+        <v>43940.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D416" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D418" s="2">
+        <v>43941.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D420" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D421" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D422" s="2">
+        <v>43941.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D426" s="2">
+        <v>43941.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D427" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D430" s="2">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D431" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D434" s="2">
+        <v>43922.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D436" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D439" s="2">
+        <v>43964.0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D442" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D445" s="2">
+        <v>43949.0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D446" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D447" s="2">
+        <v>43935.0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D450" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D452" s="2">
+        <v>43931.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D453" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D457" s="2">
+        <v>43929.0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D458" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D459" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D461" s="2">
+        <v>43920.0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D464" s="2">
+        <v>43945.0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D466" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D467" s="2">
+        <v>43931.0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D469" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D473" s="2">
+        <v>43964.0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D474" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D475" s="2">
+        <v>43951.0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D477" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D481" s="2">
+        <v>43951.0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D482" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D487" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D488" s="2">
+        <v>43951.0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D490" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D493" s="2">
+        <v>43938.0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D497" s="2">
+        <v>43951.0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D498" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D501" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D502" s="2">
+        <v>43944.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D508" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D509" s="2">
+        <v>43954.0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D511" s="2">
+        <v>43950.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D513" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D517" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D518" s="2">
+        <v>43934.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D519" s="2">
+        <v>43931.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D521" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D525" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D526" s="2">
+        <v>43939.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D529" s="2">
+        <v>43950.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D530" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D533" s="2">
+        <v>43946.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D535" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D538" s="2">
+        <v>43941.0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D539" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D541" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D542" s="2">
+        <v>43933.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D546" s="2">
+        <v>43948.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D548" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D551" s="2">
+        <v>43948.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D553" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D556" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D557" s="2">
+        <v>43945.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D559" s="2">
+        <v>43925.0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D561" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D563" s="2">
+        <v>43965.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D565" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D566" s="2">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D568" s="2">
+        <v>43944.0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C571" s="2">
+        <v>43929.0</v>
+      </c>
+      <c r="D571" s="2">
+        <v>43945.0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5317,97 +7925,97 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>72.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
-        <v>35.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>80.0</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
+        <v>43929.0</v>
+      </c>
+      <c r="C8" s="2">
         <v>43945.0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43929.0</v>
       </c>
       <c r="D8" s="1">
         <v>1.0</v>
@@ -5415,29 +8023,15 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43943.0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43940.0</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1">
         <v>1.0</v>
       </c>
     </row>

--- a/Case Info Changelog.xlsx
+++ b/Case Info Changelog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="130">
   <si>
     <t>CaseCode</t>
   </si>
@@ -26,19 +26,7 @@
     <t>New Value</t>
   </si>
   <si>
-    <t>C102835</t>
-  </si>
-  <si>
-    <t>RegionRes</t>
-  </si>
-  <si>
-    <t>NCR</t>
-  </si>
-  <si>
-    <t>Region V: Bicol Region</t>
-  </si>
-  <si>
-    <t>C103631</t>
+    <t>Records Changed</t>
   </si>
   <si>
     <t>HealthStatus</t>
@@ -50,277 +38,370 @@
     <t>Recovered</t>
   </si>
   <si>
+    <t>C102368</t>
+  </si>
+  <si>
+    <t>Asymptomatic</t>
+  </si>
+  <si>
     <t>DateRepRem</t>
   </si>
   <si>
+    <t>Died</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>0 to 4</t>
+  </si>
+  <si>
+    <t>70 to 74</t>
+  </si>
+  <si>
     <t>RemovalType</t>
   </si>
   <si>
-    <t>C105372</t>
-  </si>
-  <si>
-    <t>C128467</t>
-  </si>
-  <si>
-    <t>C136556</t>
-  </si>
-  <si>
-    <t>C142512</t>
-  </si>
-  <si>
-    <t>C187171</t>
-  </si>
-  <si>
-    <t>C197571</t>
-  </si>
-  <si>
-    <t>C209050</t>
-  </si>
-  <si>
-    <t>C209109</t>
-  </si>
-  <si>
-    <t>C219197</t>
-  </si>
-  <si>
-    <t>C227855</t>
-  </si>
-  <si>
-    <t>C239609</t>
-  </si>
-  <si>
-    <t>C242848</t>
-  </si>
-  <si>
-    <t>C268598</t>
-  </si>
-  <si>
-    <t>C281328</t>
-  </si>
-  <si>
-    <t>C281919</t>
-  </si>
-  <si>
-    <t>C282237</t>
-  </si>
-  <si>
-    <t>C290556</t>
-  </si>
-  <si>
-    <t>Died</t>
-  </si>
-  <si>
-    <t>DateDied</t>
-  </si>
-  <si>
-    <t>C292169</t>
-  </si>
-  <si>
-    <t>C325509</t>
-  </si>
-  <si>
-    <t>C329809</t>
-  </si>
-  <si>
-    <t>C349808</t>
-  </si>
-  <si>
-    <t>C355206</t>
-  </si>
-  <si>
-    <t>C359477</t>
-  </si>
-  <si>
-    <t>C370147</t>
+    <t>C106339</t>
+  </si>
+  <si>
+    <t>80+</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Severe</t>
+  </si>
+  <si>
+    <t>C119747</t>
+  </si>
+  <si>
+    <t>C120674</t>
+  </si>
+  <si>
+    <t>C145966</t>
+  </si>
+  <si>
+    <t>C158176</t>
+  </si>
+  <si>
+    <t>C160082</t>
+  </si>
+  <si>
+    <t>C170905</t>
+  </si>
+  <si>
+    <t>C175939</t>
+  </si>
+  <si>
+    <t>C186309</t>
+  </si>
+  <si>
+    <t>C207579</t>
+  </si>
+  <si>
+    <t>C210902</t>
+  </si>
+  <si>
+    <t>C235148</t>
+  </si>
+  <si>
+    <t>C241604</t>
+  </si>
+  <si>
+    <t>C242812</t>
+  </si>
+  <si>
+    <t>C270642</t>
+  </si>
+  <si>
+    <t>C272667</t>
+  </si>
+  <si>
+    <t>C279424</t>
+  </si>
+  <si>
+    <t>C284774</t>
+  </si>
+  <si>
+    <t>C296468</t>
+  </si>
+  <si>
+    <t>C311092</t>
+  </si>
+  <si>
+    <t>C311532</t>
+  </si>
+  <si>
+    <t>C321503</t>
+  </si>
+  <si>
+    <t>C327111</t>
+  </si>
+  <si>
+    <t>C340753</t>
+  </si>
+  <si>
+    <t>C350075</t>
+  </si>
+  <si>
+    <t>C361258</t>
+  </si>
+  <si>
+    <t>C372007</t>
+  </si>
+  <si>
+    <t>C377165</t>
   </si>
   <si>
     <t>C377215</t>
   </si>
   <si>
-    <t>AgeGroup</t>
-  </si>
-  <si>
-    <t>70 to 74</t>
-  </si>
-  <si>
-    <t>0 to 4</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>C380548</t>
-  </si>
-  <si>
-    <t>C384657</t>
-  </si>
-  <si>
-    <t>C394235</t>
-  </si>
-  <si>
-    <t>C403510</t>
-  </si>
-  <si>
-    <t>C423388</t>
-  </si>
-  <si>
-    <t>C428978</t>
+    <t>C393951</t>
+  </si>
+  <si>
+    <t>C401994</t>
+  </si>
+  <si>
+    <t>C424656</t>
+  </si>
+  <si>
+    <t>C426076</t>
   </si>
   <si>
     <t>C437578</t>
   </si>
   <si>
-    <t>80+</t>
-  </si>
-  <si>
-    <t>C458464</t>
-  </si>
-  <si>
-    <t>C487011</t>
-  </si>
-  <si>
-    <t>C489067</t>
-  </si>
-  <si>
-    <t>C526457</t>
-  </si>
-  <si>
-    <t>C537784</t>
-  </si>
-  <si>
-    <t>C542840</t>
-  </si>
-  <si>
-    <t>C557884</t>
-  </si>
-  <si>
-    <t>C559303</t>
-  </si>
-  <si>
-    <t>C559930</t>
-  </si>
-  <si>
-    <t>C575682</t>
-  </si>
-  <si>
-    <t>C602728</t>
-  </si>
-  <si>
-    <t>C606859</t>
-  </si>
-  <si>
-    <t>C609304</t>
-  </si>
-  <si>
-    <t>C621125</t>
+    <t>C464036</t>
+  </si>
+  <si>
+    <t>C481740</t>
+  </si>
+  <si>
+    <t>C481990</t>
+  </si>
+  <si>
+    <t>C483834</t>
+  </si>
+  <si>
+    <t>C497222</t>
+  </si>
+  <si>
+    <t>C500460</t>
+  </si>
+  <si>
+    <t>C501849</t>
+  </si>
+  <si>
+    <t>C503727</t>
+  </si>
+  <si>
+    <t>C529251</t>
+  </si>
+  <si>
+    <t>C536649</t>
+  </si>
+  <si>
+    <t>C536796</t>
+  </si>
+  <si>
+    <t>C578199</t>
+  </si>
+  <si>
+    <t>C586833</t>
+  </si>
+  <si>
+    <t>C587100</t>
+  </si>
+  <si>
+    <t>C587992</t>
+  </si>
+  <si>
+    <t>C599005</t>
+  </si>
+  <si>
+    <t>C599831</t>
+  </si>
+  <si>
+    <t>C602919</t>
+  </si>
+  <si>
+    <t>C616524</t>
+  </si>
+  <si>
+    <t>C630744</t>
+  </si>
+  <si>
+    <t>C631962</t>
+  </si>
+  <si>
+    <t>C645166</t>
   </si>
   <si>
     <t>C645235</t>
   </si>
   <si>
-    <t>CityMuniPSGC</t>
-  </si>
-  <si>
-    <t>PH137404000</t>
-  </si>
-  <si>
-    <t>C676531</t>
-  </si>
-  <si>
-    <t>C681810</t>
-  </si>
-  <si>
-    <t>C684963</t>
-  </si>
-  <si>
-    <t>C695147</t>
-  </si>
-  <si>
-    <t>C698159</t>
-  </si>
-  <si>
-    <t>C702302</t>
-  </si>
-  <si>
-    <t>C706825</t>
-  </si>
-  <si>
-    <t>C716031</t>
-  </si>
-  <si>
-    <t>C723439</t>
-  </si>
-  <si>
-    <t>C726049</t>
-  </si>
-  <si>
-    <t>C737215</t>
-  </si>
-  <si>
-    <t>C757279</t>
-  </si>
-  <si>
-    <t>C760205</t>
-  </si>
-  <si>
-    <t>C788442</t>
-  </si>
-  <si>
-    <t>C794371</t>
-  </si>
-  <si>
-    <t>C826216</t>
-  </si>
-  <si>
-    <t>C826281</t>
-  </si>
-  <si>
-    <t>C836997</t>
-  </si>
-  <si>
-    <t>C844876</t>
-  </si>
-  <si>
-    <t>C849689</t>
-  </si>
-  <si>
-    <t>C894594</t>
-  </si>
-  <si>
-    <t>C906800</t>
-  </si>
-  <si>
-    <t>C921972</t>
-  </si>
-  <si>
-    <t>C937014</t>
-  </si>
-  <si>
-    <t>C938988</t>
-  </si>
-  <si>
-    <t>C942944</t>
-  </si>
-  <si>
-    <t>C952898</t>
-  </si>
-  <si>
-    <t>C985929</t>
-  </si>
-  <si>
-    <t>C992341</t>
-  </si>
-  <si>
-    <t>C994734</t>
-  </si>
-  <si>
-    <t>C995067</t>
-  </si>
-  <si>
-    <t>C997346</t>
-  </si>
-  <si>
-    <t>Records Changed</t>
+    <t>CityMunRes</t>
+  </si>
+  <si>
+    <t>QUEZON CITY</t>
+  </si>
+  <si>
+    <t>C646792</t>
+  </si>
+  <si>
+    <t>C648047</t>
+  </si>
+  <si>
+    <t>C657460</t>
+  </si>
+  <si>
+    <t>C673338</t>
+  </si>
+  <si>
+    <t>C675347</t>
+  </si>
+  <si>
+    <t>C680804</t>
+  </si>
+  <si>
+    <t>C712755</t>
+  </si>
+  <si>
+    <t>C720724</t>
+  </si>
+  <si>
+    <t>C732782</t>
+  </si>
+  <si>
+    <t>C749422</t>
+  </si>
+  <si>
+    <t>C749594</t>
+  </si>
+  <si>
+    <t>C762106</t>
+  </si>
+  <si>
+    <t>C764292</t>
+  </si>
+  <si>
+    <t>C765412</t>
+  </si>
+  <si>
+    <t>C771051</t>
+  </si>
+  <si>
+    <t>C778748</t>
+  </si>
+  <si>
+    <t>C779097</t>
+  </si>
+  <si>
+    <t>C781242</t>
+  </si>
+  <si>
+    <t>C801599</t>
+  </si>
+  <si>
+    <t>C803249</t>
+  </si>
+  <si>
+    <t>C807081</t>
+  </si>
+  <si>
+    <t>C818064</t>
+  </si>
+  <si>
+    <t>C828932</t>
+  </si>
+  <si>
+    <t>C828976</t>
+  </si>
+  <si>
+    <t>C838906</t>
+  </si>
+  <si>
+    <t>C840870</t>
+  </si>
+  <si>
+    <t>C862736</t>
+  </si>
+  <si>
+    <t>C865058</t>
+  </si>
+  <si>
+    <t>C865120</t>
+  </si>
+  <si>
+    <t>C868285</t>
+  </si>
+  <si>
+    <t>C871775</t>
+  </si>
+  <si>
+    <t>C875837</t>
+  </si>
+  <si>
+    <t>C878290</t>
+  </si>
+  <si>
+    <t>C890689</t>
+  </si>
+  <si>
+    <t>C913376</t>
+  </si>
+  <si>
+    <t>C923416</t>
+  </si>
+  <si>
+    <t>C946358</t>
+  </si>
+  <si>
+    <t>C949800</t>
+  </si>
+  <si>
+    <t>C952489</t>
+  </si>
+  <si>
+    <t>C954376</t>
+  </si>
+  <si>
+    <t>C954623</t>
+  </si>
+  <si>
+    <t>C966471</t>
+  </si>
+  <si>
+    <t>C968449</t>
+  </si>
+  <si>
+    <t>C969002</t>
+  </si>
+  <si>
+    <t>C975388</t>
+  </si>
+  <si>
+    <t>C975608</t>
+  </si>
+  <si>
+    <t>C989555</t>
+  </si>
+  <si>
+    <t>C990899</t>
+  </si>
+  <si>
+    <t>C991381</t>
+  </si>
+  <si>
+    <t>C994955</t>
+  </si>
+  <si>
+    <t>C995272</t>
   </si>
 </sst>
 </file>
@@ -601,7 +682,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -618,13 +699,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="4">
@@ -632,170 +710,170 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -804,18 +882,15 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -823,129 +898,132 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -953,85 +1031,82 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
@@ -1039,204 +1114,207 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D38" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D45" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D48" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2">
-        <v>43938.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -1244,10 +1322,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -1255,268 +1333,262 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D56" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D57" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D61" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D69" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="1">
-        <v>71.0</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.0</v>
+        <v>10</v>
+      </c>
+      <c r="D76" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -1527,10 +1599,10 @@
         <v>45</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -1538,21 +1610,24 @@
         <v>45</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D80" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="81">
@@ -1560,13 +1635,10 @@
         <v>46</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -1574,32 +1646,38 @@
         <v>46</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D82" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="2">
-        <v>43967.0</v>
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -1609,8 +1687,11 @@
       <c r="B85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="2">
-        <v>43972.0</v>
+      <c r="C85" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>71.0</v>
       </c>
     </row>
     <row r="86">
@@ -1618,13 +1699,13 @@
         <v>48</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -1632,13 +1713,13 @@
         <v>49</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -1646,10 +1727,10 @@
         <v>49</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D88" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="89">
@@ -1657,10 +1738,10 @@
         <v>49</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -1668,10 +1749,13 @@
         <v>50</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -1679,13 +1763,10 @@
         <v>50</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D91" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="92">
@@ -1693,10 +1774,10 @@
         <v>50</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -1704,13 +1785,13 @@
         <v>51</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C93" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.0</v>
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -1718,38 +1799,35 @@
         <v>51</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="D94" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -1757,24 +1835,27 @@
         <v>53</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2">
-        <v>43972.0</v>
+        <v>13</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>80.0</v>
       </c>
     </row>
     <row r="99">
@@ -1782,10 +1863,10 @@
         <v>54</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D99" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="100">
@@ -1793,21 +1874,24 @@
         <v>54</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -1815,10 +1899,13 @@
         <v>55</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -1826,24 +1913,21 @@
         <v>55</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D103" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -1851,13 +1935,10 @@
         <v>56</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -1865,21 +1946,24 @@
         <v>56</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D107" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="108">
@@ -1887,10 +1971,10 @@
         <v>57</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -1898,24 +1982,24 @@
         <v>57</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D110" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="111">
@@ -1923,10 +2007,10 @@
         <v>58</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D111" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="112">
@@ -1934,27 +2018,24 @@
         <v>58</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D112" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -1962,10 +2043,13 @@
         <v>59</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -1973,21 +2057,21 @@
         <v>59</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D115" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -1995,10 +2079,10 @@
         <v>60</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D117" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="118">
@@ -2006,24 +2090,24 @@
         <v>60</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D118" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2031,13 +2115,10 @@
         <v>61</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D120" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="121">
@@ -2045,21 +2126,24 @@
         <v>61</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -2067,10 +2151,13 @@
         <v>62</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124">
@@ -2078,24 +2165,21 @@
         <v>62</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D124" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="126">
@@ -2103,13 +2187,10 @@
         <v>63</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D126" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="127">
@@ -2117,24 +2198,24 @@
         <v>63</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -2142,10 +2223,10 @@
         <v>64</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
@@ -2153,24 +2234,24 @@
         <v>64</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D131" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="132">
@@ -2178,10 +2259,10 @@
         <v>65</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -2189,24 +2270,24 @@
         <v>65</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D134" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="135">
@@ -2214,7 +2295,10 @@
         <v>66</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>11</v>
@@ -2225,29 +2309,32 @@
         <v>66</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D136" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>11</v>
@@ -2255,326 +2342,323 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D139" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D142" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D143" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D145" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D149" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D151" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D155" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D156" s="2">
-        <v>43930.0</v>
+        <v>16</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D157" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D159" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D163" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D164" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="166">
@@ -2582,10 +2666,10 @@
         <v>79</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D166" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="167">
@@ -2593,10 +2677,13 @@
         <v>79</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="168">
@@ -2604,13 +2691,10 @@
         <v>79</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
@@ -2618,13 +2702,13 @@
         <v>80</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
@@ -2632,10 +2716,10 @@
         <v>80</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D170" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="171">
@@ -2643,10 +2727,10 @@
         <v>80</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
@@ -2654,7 +2738,7 @@
         <v>81</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>11</v>
@@ -2665,10 +2749,10 @@
         <v>81</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>11</v>
@@ -2679,10 +2763,10 @@
         <v>81</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D174" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="175">
@@ -2690,10 +2774,10 @@
         <v>82</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D175" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="176">
@@ -2701,13 +2785,10 @@
         <v>82</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -2715,10 +2796,13 @@
         <v>82</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -2726,10 +2810,10 @@
         <v>83</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D178" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="179">
@@ -2737,10 +2821,10 @@
         <v>83</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>11</v>
@@ -2751,7 +2835,7 @@
         <v>83</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>11</v>
@@ -2765,7 +2849,7 @@
         <v>5</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>7</v>
@@ -2773,27 +2857,24 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D183" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="184">
@@ -2801,32 +2882,35 @@
         <v>85</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D185" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="187">
@@ -2834,38 +2918,35 @@
         <v>86</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D187" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="190">
@@ -2873,35 +2954,35 @@
         <v>87</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D192" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="193">
@@ -2909,32 +2990,35 @@
         <v>88</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D193" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="196">
@@ -2942,38 +3026,35 @@
         <v>89</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D198" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="199">
@@ -2981,32 +3062,35 @@
         <v>90</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D201" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="202">
@@ -3014,35 +3098,35 @@
         <v>91</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D202" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="205">
@@ -3050,10 +3134,7 @@
         <v>92</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>11</v>
@@ -3061,10 +3142,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>11</v>
@@ -3072,13 +3156,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D207" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="208">
@@ -3086,38 +3170,35 @@
         <v>93</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D208" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="D209" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D210" s="2">
-        <v>43943.0</v>
+        <v>16</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="211">
@@ -3125,10 +3206,10 @@
         <v>94</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D211" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="212">
@@ -3136,24 +3217,24 @@
         <v>94</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
@@ -3161,10 +3242,13 @@
         <v>95</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215">
@@ -3172,21 +3256,21 @@
         <v>95</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D215" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D216" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="217">
@@ -3194,13 +3278,10 @@
         <v>96</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
@@ -3208,21 +3289,24 @@
         <v>96</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D218" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D219" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="220">
@@ -3230,10 +3314,10 @@
         <v>97</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D220" s="2">
-        <v>43972.0</v>
+        <v>43973.0</v>
       </c>
     </row>
     <row r="221">
@@ -3241,21 +3325,21 @@
         <v>97</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>7</v>
@@ -3263,110 +3347,1154 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D223" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D224" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2">
-        <v>43972.0</v>
+        <v>16</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D226" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D229" s="2">
+        <v>43973.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" s="2">
-        <v>43972.0</v>
+        <v>5</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B232" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D231" s="1" t="s">
+      <c r="D239" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D297" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D305" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D315" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D317" s="2">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3395,35 +4523,35 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
@@ -3434,21 +4562,21 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
         <v>71.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.0</v>
       </c>
       <c r="D5" s="1">
         <v>1.0</v>
@@ -3456,13 +4584,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
         <v>80.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.0</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
@@ -3470,13 +4598,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>1.0</v>
@@ -3484,15 +4612,57 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
         <v>1.0</v>
       </c>
     </row>

--- a/Case Info Changelog.xlsx
+++ b/Case Info Changelog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="122">
   <si>
     <t>CaseCode</t>
   </si>
@@ -26,382 +26,358 @@
     <t>New Value</t>
   </si>
   <si>
+    <t>C102835</t>
+  </si>
+  <si>
+    <t>RegionRes</t>
+  </si>
+  <si>
+    <t>Region V: Bicol Region</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>C120530</t>
+  </si>
+  <si>
+    <t>HealthStatus</t>
+  </si>
+  <si>
+    <t>Asymptomatic</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>DateRepRem</t>
+  </si>
+  <si>
+    <t>RemovalType</t>
+  </si>
+  <si>
+    <t>C123613</t>
+  </si>
+  <si>
+    <t>C151313</t>
+  </si>
+  <si>
+    <t>Mild</t>
+  </si>
+  <si>
+    <t>C155878</t>
+  </si>
+  <si>
+    <t>C163453</t>
+  </si>
+  <si>
+    <t>C167317</t>
+  </si>
+  <si>
+    <t>C170489</t>
+  </si>
+  <si>
+    <t>C173479</t>
+  </si>
+  <si>
+    <t>C180262</t>
+  </si>
+  <si>
+    <t>C185115</t>
+  </si>
+  <si>
+    <t>C186309</t>
+  </si>
+  <si>
+    <t>DateDied</t>
+  </si>
+  <si>
+    <t>C187171</t>
+  </si>
+  <si>
+    <t>C191659</t>
+  </si>
+  <si>
+    <t>C194201</t>
+  </si>
+  <si>
+    <t>Died</t>
+  </si>
+  <si>
+    <t>C200224</t>
+  </si>
+  <si>
+    <t>C201549</t>
+  </si>
+  <si>
+    <t>C211387</t>
+  </si>
+  <si>
+    <t>C211969</t>
+  </si>
+  <si>
+    <t>C227875</t>
+  </si>
+  <si>
+    <t>C239572</t>
+  </si>
+  <si>
+    <t>C242502</t>
+  </si>
+  <si>
+    <t>C242848</t>
+  </si>
+  <si>
+    <t>C245482</t>
+  </si>
+  <si>
+    <t>C245500</t>
+  </si>
+  <si>
+    <t>C267406</t>
+  </si>
+  <si>
+    <t>C270642</t>
+  </si>
+  <si>
+    <t>C277694</t>
+  </si>
+  <si>
+    <t>C284774</t>
+  </si>
+  <si>
+    <t>C286651</t>
+  </si>
+  <si>
+    <t>C286715</t>
+  </si>
+  <si>
+    <t>C312565</t>
+  </si>
+  <si>
+    <t>C333408</t>
+  </si>
+  <si>
+    <t>C340990</t>
+  </si>
+  <si>
+    <t>C347406</t>
+  </si>
+  <si>
+    <t>C360935</t>
+  </si>
+  <si>
+    <t>C362273</t>
+  </si>
+  <si>
+    <t>C369326</t>
+  </si>
+  <si>
+    <t>C374881</t>
+  </si>
+  <si>
+    <t>C380118</t>
+  </si>
+  <si>
+    <t>C405449</t>
+  </si>
+  <si>
+    <t>C412925</t>
+  </si>
+  <si>
+    <t>C421988</t>
+  </si>
+  <si>
+    <t>C450826</t>
+  </si>
+  <si>
+    <t>C457884</t>
+  </si>
+  <si>
+    <t>C460714</t>
+  </si>
+  <si>
+    <t>C477790</t>
+  </si>
+  <si>
+    <t>C478674</t>
+  </si>
+  <si>
+    <t>Repatriate</t>
+  </si>
+  <si>
+    <t>C486321</t>
+  </si>
+  <si>
+    <t>C513848</t>
+  </si>
+  <si>
+    <t>C529544</t>
+  </si>
+  <si>
+    <t>C537294</t>
+  </si>
+  <si>
+    <t>C540600</t>
+  </si>
+  <si>
+    <t>C543624</t>
+  </si>
+  <si>
+    <t>C546809</t>
+  </si>
+  <si>
+    <t>C554792</t>
+  </si>
+  <si>
+    <t>C556551</t>
+  </si>
+  <si>
+    <t>C586833</t>
+  </si>
+  <si>
+    <t>C592013</t>
+  </si>
+  <si>
+    <t>C593017</t>
+  </si>
+  <si>
+    <t>C619535</t>
+  </si>
+  <si>
+    <t>C623662</t>
+  </si>
+  <si>
+    <t>C629193</t>
+  </si>
+  <si>
+    <t>C630744</t>
+  </si>
+  <si>
+    <t>C634629</t>
+  </si>
+  <si>
+    <t>C635017</t>
+  </si>
+  <si>
+    <t>C635678</t>
+  </si>
+  <si>
+    <t>C651633</t>
+  </si>
+  <si>
+    <t>C675347</t>
+  </si>
+  <si>
+    <t>C675434</t>
+  </si>
+  <si>
+    <t>C679661</t>
+  </si>
+  <si>
+    <t>C706869</t>
+  </si>
+  <si>
+    <t>C714322</t>
+  </si>
+  <si>
+    <t>C725120</t>
+  </si>
+  <si>
+    <t>C737119</t>
+  </si>
+  <si>
+    <t>C758813</t>
+  </si>
+  <si>
+    <t>C771271</t>
+  </si>
+  <si>
+    <t>C794371</t>
+  </si>
+  <si>
+    <t>C797111</t>
+  </si>
+  <si>
+    <t>C815893</t>
+  </si>
+  <si>
+    <t>C816013</t>
+  </si>
+  <si>
+    <t>C831745</t>
+  </si>
+  <si>
+    <t>C843838</t>
+  </si>
+  <si>
+    <t>C845513</t>
+  </si>
+  <si>
+    <t>C875837</t>
+  </si>
+  <si>
+    <t>C886931</t>
+  </si>
+  <si>
+    <t>C890246</t>
+  </si>
+  <si>
+    <t>C899135</t>
+  </si>
+  <si>
+    <t>C920770</t>
+  </si>
+  <si>
+    <t>C922182</t>
+  </si>
+  <si>
+    <t>C935433</t>
+  </si>
+  <si>
+    <t>C938558</t>
+  </si>
+  <si>
+    <t>C946701</t>
+  </si>
+  <si>
+    <t>C947919</t>
+  </si>
+  <si>
+    <t>C949351</t>
+  </si>
+  <si>
+    <t>C949945</t>
+  </si>
+  <si>
+    <t>C951489</t>
+  </si>
+  <si>
+    <t>C954324</t>
+  </si>
+  <si>
+    <t>C957109</t>
+  </si>
+  <si>
+    <t>C959796</t>
+  </si>
+  <si>
+    <t>C968090</t>
+  </si>
+  <si>
+    <t>C968137</t>
+  </si>
+  <si>
+    <t>Region VI: Western Visayas</t>
+  </si>
+  <si>
+    <t>C980747</t>
+  </si>
+  <si>
+    <t>C992150</t>
+  </si>
+  <si>
     <t>Records Changed</t>
-  </si>
-  <si>
-    <t>HealthStatus</t>
-  </si>
-  <si>
-    <t>Mild</t>
-  </si>
-  <si>
-    <t>Recovered</t>
-  </si>
-  <si>
-    <t>C102368</t>
-  </si>
-  <si>
-    <t>Asymptomatic</t>
-  </si>
-  <si>
-    <t>DateRepRem</t>
-  </si>
-  <si>
-    <t>Died</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>AgeGroup</t>
-  </si>
-  <si>
-    <t>0 to 4</t>
-  </si>
-  <si>
-    <t>70 to 74</t>
-  </si>
-  <si>
-    <t>RemovalType</t>
-  </si>
-  <si>
-    <t>C106339</t>
-  </si>
-  <si>
-    <t>80+</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>Severe</t>
-  </si>
-  <si>
-    <t>C119747</t>
-  </si>
-  <si>
-    <t>C120674</t>
-  </si>
-  <si>
-    <t>C145966</t>
-  </si>
-  <si>
-    <t>C158176</t>
-  </si>
-  <si>
-    <t>C160082</t>
-  </si>
-  <si>
-    <t>C170905</t>
-  </si>
-  <si>
-    <t>C175939</t>
-  </si>
-  <si>
-    <t>C186309</t>
-  </si>
-  <si>
-    <t>C207579</t>
-  </si>
-  <si>
-    <t>C210902</t>
-  </si>
-  <si>
-    <t>C235148</t>
-  </si>
-  <si>
-    <t>C241604</t>
-  </si>
-  <si>
-    <t>C242812</t>
-  </si>
-  <si>
-    <t>C270642</t>
-  </si>
-  <si>
-    <t>C272667</t>
-  </si>
-  <si>
-    <t>C279424</t>
-  </si>
-  <si>
-    <t>C284774</t>
-  </si>
-  <si>
-    <t>C296468</t>
-  </si>
-  <si>
-    <t>C311092</t>
-  </si>
-  <si>
-    <t>C311532</t>
-  </si>
-  <si>
-    <t>C321503</t>
-  </si>
-  <si>
-    <t>C327111</t>
-  </si>
-  <si>
-    <t>C340753</t>
-  </si>
-  <si>
-    <t>C350075</t>
-  </si>
-  <si>
-    <t>C361258</t>
-  </si>
-  <si>
-    <t>C372007</t>
-  </si>
-  <si>
-    <t>C377165</t>
-  </si>
-  <si>
-    <t>C377215</t>
-  </si>
-  <si>
-    <t>C393951</t>
-  </si>
-  <si>
-    <t>C401994</t>
-  </si>
-  <si>
-    <t>C424656</t>
-  </si>
-  <si>
-    <t>C426076</t>
-  </si>
-  <si>
-    <t>C437578</t>
-  </si>
-  <si>
-    <t>C464036</t>
-  </si>
-  <si>
-    <t>C481740</t>
-  </si>
-  <si>
-    <t>C481990</t>
-  </si>
-  <si>
-    <t>C483834</t>
-  </si>
-  <si>
-    <t>C497222</t>
-  </si>
-  <si>
-    <t>C500460</t>
-  </si>
-  <si>
-    <t>C501849</t>
-  </si>
-  <si>
-    <t>C503727</t>
-  </si>
-  <si>
-    <t>C529251</t>
-  </si>
-  <si>
-    <t>C536649</t>
-  </si>
-  <si>
-    <t>C536796</t>
-  </si>
-  <si>
-    <t>C578199</t>
-  </si>
-  <si>
-    <t>C586833</t>
-  </si>
-  <si>
-    <t>C587100</t>
-  </si>
-  <si>
-    <t>C587992</t>
-  </si>
-  <si>
-    <t>C599005</t>
-  </si>
-  <si>
-    <t>C599831</t>
-  </si>
-  <si>
-    <t>C602919</t>
-  </si>
-  <si>
-    <t>C616524</t>
-  </si>
-  <si>
-    <t>C630744</t>
-  </si>
-  <si>
-    <t>C631962</t>
-  </si>
-  <si>
-    <t>C645166</t>
-  </si>
-  <si>
-    <t>C645235</t>
-  </si>
-  <si>
-    <t>CityMunRes</t>
-  </si>
-  <si>
-    <t>QUEZON CITY</t>
-  </si>
-  <si>
-    <t>C646792</t>
-  </si>
-  <si>
-    <t>C648047</t>
-  </si>
-  <si>
-    <t>C657460</t>
-  </si>
-  <si>
-    <t>C673338</t>
-  </si>
-  <si>
-    <t>C675347</t>
-  </si>
-  <si>
-    <t>C680804</t>
-  </si>
-  <si>
-    <t>C712755</t>
-  </si>
-  <si>
-    <t>C720724</t>
-  </si>
-  <si>
-    <t>C732782</t>
-  </si>
-  <si>
-    <t>C749422</t>
-  </si>
-  <si>
-    <t>C749594</t>
-  </si>
-  <si>
-    <t>C762106</t>
-  </si>
-  <si>
-    <t>C764292</t>
-  </si>
-  <si>
-    <t>C765412</t>
-  </si>
-  <si>
-    <t>C771051</t>
-  </si>
-  <si>
-    <t>C778748</t>
-  </si>
-  <si>
-    <t>C779097</t>
-  </si>
-  <si>
-    <t>C781242</t>
-  </si>
-  <si>
-    <t>C801599</t>
-  </si>
-  <si>
-    <t>C803249</t>
-  </si>
-  <si>
-    <t>C807081</t>
-  </si>
-  <si>
-    <t>C818064</t>
-  </si>
-  <si>
-    <t>C828932</t>
-  </si>
-  <si>
-    <t>C828976</t>
-  </si>
-  <si>
-    <t>C838906</t>
-  </si>
-  <si>
-    <t>C840870</t>
-  </si>
-  <si>
-    <t>C862736</t>
-  </si>
-  <si>
-    <t>C865058</t>
-  </si>
-  <si>
-    <t>C865120</t>
-  </si>
-  <si>
-    <t>C868285</t>
-  </si>
-  <si>
-    <t>C871775</t>
-  </si>
-  <si>
-    <t>C875837</t>
-  </si>
-  <si>
-    <t>C878290</t>
-  </si>
-  <si>
-    <t>C890689</t>
-  </si>
-  <si>
-    <t>C913376</t>
-  </si>
-  <si>
-    <t>C923416</t>
-  </si>
-  <si>
-    <t>C946358</t>
-  </si>
-  <si>
-    <t>C949800</t>
-  </si>
-  <si>
-    <t>C952489</t>
-  </si>
-  <si>
-    <t>C954376</t>
-  </si>
-  <si>
-    <t>C954623</t>
-  </si>
-  <si>
-    <t>C966471</t>
-  </si>
-  <si>
-    <t>C968449</t>
-  </si>
-  <si>
-    <t>C969002</t>
-  </si>
-  <si>
-    <t>C975388</t>
-  </si>
-  <si>
-    <t>C975608</t>
-  </si>
-  <si>
-    <t>C989555</t>
-  </si>
-  <si>
-    <t>C990899</t>
-  </si>
-  <si>
-    <t>C991381</t>
-  </si>
-  <si>
-    <t>C994955</t>
-  </si>
-  <si>
-    <t>C995272</t>
   </si>
 </sst>
 </file>
@@ -682,7 +658,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -699,10 +675,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
-        <v>43973.0</v>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -710,176 +689,176 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -887,132 +866,129 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -1020,10 +996,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1031,46 +1007,49 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="2">
-        <v>43973.0</v>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43960.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>7</v>
@@ -1078,254 +1057,251 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2">
-        <v>43973.0</v>
+        <v>43963.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D54" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -1333,240 +1309,237 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="D58" s="2">
+        <v>43945.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D59" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D63" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="2">
-        <v>43973.0</v>
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D66" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="2">
-        <v>43973.0</v>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D70" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D72" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="D74" s="2">
+        <v>43934.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
@@ -1574,731 +1547,722 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D77" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D79" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="D81" s="2">
+        <v>43960.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="2">
-        <v>43973.0</v>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D84" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D85" s="1">
-        <v>71.0</v>
+      <c r="D85" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2">
-        <v>43973.0</v>
+        <v>43957.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D89" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D92" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D95" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D98" s="1">
-        <v>80.0</v>
+      <c r="D98" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D104" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D109" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D114" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D118" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D119" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="2">
-        <v>43973.0</v>
+      <c r="D120" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D123" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D127" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D129" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D132" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" s="2">
-        <v>43973.0</v>
+        <v>5</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>11</v>
@@ -2306,35 +2270,32 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D136" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D137" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>11</v>
@@ -2342,212 +2303,215 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D140" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D148" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D154" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D155" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>11</v>
@@ -2555,586 +2519,583 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D157" s="2">
-        <v>43973.0</v>
+      <c r="D157" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D158" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D159" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D160" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="D162" s="2">
+        <v>43925.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D164" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="D169" s="2">
+        <v>43955.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D170" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D172" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D175" s="2">
-        <v>43973.0</v>
+        <v>43962.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D178" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D179" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D180" s="2">
+        <v>43934.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D182" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D183" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D184" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D185" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D191" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D192" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D193" s="2">
-        <v>43973.0</v>
+        <v>43966.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D196" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D201" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D203" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>11</v>
@@ -3142,151 +3103,151 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D206" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D207" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D209" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D213" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D216" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D217" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>5</v>
@@ -3300,492 +3261,492 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D219" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D226" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D227" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D231" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D232" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D235" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D236" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="D237" s="2">
+        <v>43942.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D238" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D239" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D242" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D245" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D248" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D249" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D250" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D251" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D254" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D257" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D258" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>11</v>
@@ -3793,323 +3754,326 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D260" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D261" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D262" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D263" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D265" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D268" s="2">
-        <v>43973.0</v>
+        <v>9</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D269" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D271" s="2">
-        <v>43973.0</v>
+      <c r="D271" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D273" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D274" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D275" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D277" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D278" s="2">
-        <v>43973.0</v>
+        <v>13</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D281" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D283" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D284" s="2">
-        <v>43973.0</v>
+      <c r="D284" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D286" s="2">
-        <v>43973.0</v>
+        <v>5</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="287">
@@ -4117,10 +4081,13 @@
         <v>119</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288">
@@ -4128,24 +4095,21 @@
         <v>119</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D288" s="2">
+        <v>43974.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290">
@@ -4153,13 +4117,10 @@
         <v>120</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291">
@@ -4167,334 +4128,24 @@
         <v>120</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D291" s="2">
-        <v>43973.0</v>
+        <v>43974.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D293" s="2">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D297" s="2">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D298" s="2">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D301" s="2">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D305" s="2">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D307" s="2">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D311" s="2">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D315" s="2">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D317" s="2">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4523,32 +4174,32 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
-        <v>66.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>26.0</v>
@@ -4556,41 +4207,41 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>71.0</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>80.0</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
@@ -4598,71 +4249,15 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
         <v>1.0</v>
       </c>
     </row>
